--- a/biology/Zoologie/Elaphe_quadrivirgata/Elaphe_quadrivirgata.xlsx
+++ b/biology/Zoologie/Elaphe_quadrivirgata/Elaphe_quadrivirgata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elaphe quadrivirgata est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elaphe quadrivirgata est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Japon, sur les îles Hokkaidō, Honshū, Izu, Kyūshū, Oki, Tanegashima, Shikoku et Yakushima ;
 en Russie, sur l'île de Kounachir, dans les îles Kouriles.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elaphe quadrivirgata mesure entre 100 et 150 cm. Son dos est brun clair à jaune et présente avec quatre lignes noires sur toute la longueur du corps. Certains individus sont entièrement noirs (mélanisme). Les juvéniles ont des couleurs tirant plutôt sur le rouge et leurs lignes noires sont irrégulières.
 Il s'agit d'un serpent diurne qui se nourrit de rongeurs, lézards, d'oiseaux et leurs œufs, ainsi que d'insectes et d'amphibiens.
@@ -575,7 +591,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du latin quadri, « quatre », et virgata, « rayure », lui a été donné en référence à sa livrée.
 </t>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boie, 1826 : Merkmale einiger japanischer Lurche. Isis von Oken, vol. 19, p. 203-216 (texte intégral).</t>
         </is>
